--- a/Breakeven Analysis Report.xlsx
+++ b/Breakeven Analysis Report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjorgensen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csansoni.PKI-IST\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="7710" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -326,37 +326,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -498,6 +468,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -563,6 +589,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dollars</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -608,6 +690,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2601,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:H42"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
